--- a/data/trans_camb/P1802_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1802_2016_2023-Dificultad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8732971825179764</v>
+        <v>-1.034862701963391</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.813477226885389</v>
+        <v>-5.817033249559605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.4104276878636</v>
+        <v>-2.253007599442534</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.802268925998061</v>
+        <v>7.64427746020333</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.119977551268122</v>
+        <v>1.140080854860322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.03761733325994</v>
+        <v>2.974637290622228</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05882825498439945</v>
+        <v>-0.05824506984510779</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2628817575122559</v>
+        <v>-0.2583802909257155</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1209224297728402</v>
+        <v>-0.1162893048553832</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5212718871301939</v>
+        <v>0.5205297173574003</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05891482148853761</v>
+        <v>0.06501553989700742</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1721104629466996</v>
+        <v>0.1658536042126934</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-2.001176986868064</v>
+        <v>-2.001176986868062</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>-3.315505042196287</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.855913502835691</v>
+        <v>-5.149539615109714</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.405346856038971</v>
+        <v>-6.606322492415181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.001557798366521</v>
+        <v>-5.059807596388241</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.095346591560391</v>
+        <v>1.220882405649026</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.192539051289</v>
+        <v>-0.226839924580828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2882193477424209</v>
+        <v>-0.3873914677499643</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1433086201834649</v>
+        <v>-0.1433086201834648</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>-0.1574156884387031</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3097895420241124</v>
+        <v>-0.3347717180668761</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2731285559379517</v>
+        <v>-0.2858667587001545</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2647930122198737</v>
+        <v>-0.2641450495494348</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09087496626026709</v>
+        <v>0.09787416185451685</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.008563912160422481</v>
+        <v>-0.01002708629394339</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.0182067724978526</v>
+        <v>-0.02336673530177157</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>2.506359971736755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.003971055076845</v>
+        <v>2.003971055076842</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.940185772247691</v>
+        <v>-1.477100621357312</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.45222169649935</v>
+        <v>-0.9495395542506471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.475031797644539</v>
+        <v>-0.4000612818062395</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.483907070810149</v>
+        <v>4.618458180832525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.67887791621448</v>
+        <v>5.923772796665357</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.304508055597936</v>
+        <v>4.117045460135633</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>0.1510716756753452</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1407355407275873</v>
+        <v>0.1407355407275871</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1390193867219928</v>
+        <v>-0.1133444365366764</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07723463894129021</v>
+        <v>-0.05003000957181921</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03101665716217184</v>
+        <v>-0.02563468528082785</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4450336787866024</v>
+        <v>0.4585753731698313</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3896777391626932</v>
+        <v>0.404783394378849</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3364822977523954</v>
+        <v>0.3098208061698894</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>4.063672174866959</v>
+        <v>4.063672174866961</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7.02426873710901</v>
+        <v>7.024268737109008</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.507273402238239</v>
+        <v>5.507273402238236</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6634228396614407</v>
+        <v>-0.232478984756981</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.911887627621129</v>
+        <v>2.792439635120679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.532814784304777</v>
+        <v>2.716511550638382</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.052480343212656</v>
+        <v>7.950530932641506</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.98596769138925</v>
+        <v>10.44476052262956</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.185666077363567</v>
+        <v>8.235739555273124</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.2813193915170809</v>
+        <v>0.281319391517081</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.5512809709792792</v>
+        <v>0.551280970979279</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4047109351264017</v>
+        <v>0.4047109351264015</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02770646649849546</v>
+        <v>-0.02191494492238508</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1687559688993111</v>
+        <v>0.1615854576441089</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1576571667208463</v>
+        <v>0.1665973348497005</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6950009128767218</v>
+        <v>0.6619571304240258</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.03978442334682</v>
+        <v>1.001919592765081</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6804957733886444</v>
+        <v>0.696594931373014</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>1.010114386718505</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.07837662585717664</v>
+        <v>-0.07837662585717942</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.4648982176564065</v>
+        <v>0.4648982176564148</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5636352248511108</v>
+        <v>-0.8362364300768903</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.758460575147169</v>
+        <v>-1.794638008949535</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9330215990292127</v>
+        <v>-0.8115522680180688</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.754581058623716</v>
+        <v>2.740045115292129</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.690495193529168</v>
+        <v>1.607991249686386</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.670493988633609</v>
+        <v>1.785066628285825</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>0.07075072403767359</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.004161737519245946</v>
+        <v>-0.004161737519246094</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.02799313270143731</v>
+        <v>0.02799313270143781</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03747604379152057</v>
+        <v>-0.05472440402439199</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08914300619577642</v>
+        <v>-0.09071231749125792</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05534232615664179</v>
+        <v>-0.04699075288676918</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2045880069357858</v>
+        <v>0.2060852303929019</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.09442468199703798</v>
+        <v>0.09062837297928251</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1030930705909966</v>
+        <v>0.1125127724903419</v>
       </c>
     </row>
     <row r="34">
